--- a/output/piaseczno/2018/sheets/year_2018.xlsx
+++ b/output/piaseczno/2018/sheets/year_2018.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>47.04193548387097</v>
+        <v>47.41039714366708</v>
       </c>
       <c r="C2" t="n">
-        <v>42.85161290322581</v>
+        <v>43.78918756050282</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>46.45357142857141</v>
+        <v>46.91247231935156</v>
       </c>
       <c r="C3" t="n">
-        <v>42.43214285714286</v>
+        <v>43.39434357094391</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>46.89354838709678</v>
+        <v>47.45747117682902</v>
       </c>
       <c r="C4" t="n">
-        <v>43.54516129032259</v>
+        <v>44.38639464834339</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>49.48999999999999</v>
+        <v>50.10447541472121</v>
       </c>
       <c r="C5" t="n">
-        <v>42.52999999999999</v>
+        <v>45.18805652478099</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>49.19677419354839</v>
+        <v>49.46677557674289</v>
       </c>
       <c r="C6" t="n">
-        <v>45.61935483870967</v>
+        <v>46.04450966815439</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>51.44333333333334</v>
+        <v>51.72829739537346</v>
       </c>
       <c r="C7" t="n">
-        <v>47.27666666666667</v>
+        <v>47.531108620365</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>46.99354838709677</v>
+        <v>49.09884755181668</v>
       </c>
       <c r="C8" t="n">
-        <v>45.56129032258064</v>
+        <v>46.60828892399176</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>44.21290322580646</v>
+        <v>45.86696194029314</v>
       </c>
       <c r="C9" t="n">
-        <v>44.44838709677419</v>
+        <v>45.54120299264519</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>45.37666666666667</v>
+        <v>46.99400687511734</v>
       </c>
       <c r="C10" t="n">
-        <v>45.78000000000001</v>
+        <v>46.77022387777239</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>44.34838709677419</v>
+        <v>45.56045611106329</v>
       </c>
       <c r="C11" t="n">
-        <v>44.70967741935485</v>
+        <v>45.10576351739527</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>41.91333333333333</v>
+        <v>43.18406935245203</v>
       </c>
       <c r="C12" t="n">
-        <v>41.86333333333332</v>
+        <v>43.88828881486995</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>41.22903225806451</v>
+        <v>43.4005256014928</v>
       </c>
       <c r="C13" t="n">
-        <v>40.56129032258065</v>
+        <v>44.13353259587219</v>
       </c>
     </row>
   </sheetData>
